--- a/A题/附件/result1.xlsx
+++ b/A题/附件/result1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2025\A题-烟幕干扰弹投放策略\2025-8-25 A题(蔡志杰)\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Math Modeling\2025\CUMCM2025\A题\附件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD9C1E-C85C-41A1-96D3-F1E5A00FBEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD00EA-4D7D-4C9C-A39D-35232391B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -117,7 +114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -126,6 +123,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,18 +464,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" customWidth="1"/>
-    <col min="2" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="10" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="10" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -507,36 +509,129 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>179.86</v>
+      </c>
+      <c r="B2" s="3">
+        <v>140</v>
+      </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="D2" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G2" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>179.86</v>
+      </c>
+      <c r="B3" s="3">
+        <v>140</v>
+      </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="D3" s="3">
+        <v>17454.7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G3" s="3">
+        <v>16763.599999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1680.6</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.4685000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>179.86</v>
+      </c>
+      <c r="B4" s="3">
+        <v>140</v>
+      </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="3">
+        <v>17098.599999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G4" s="3">
+        <v>16278.3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1631.8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.6296999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="65.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
